--- a/data/trans_camb/P20B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P20B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-29,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-39,62; 35,98</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-43,58; 33,55</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 21,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,3; 16,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 52,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,81; 20,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 16,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,05; 37,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>258,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>347,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,46%</t>
         </is>
       </c>
     </row>
@@ -791,42 +791,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-80,16; 476,64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 440,12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,44; 663,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,87; 565,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,19; 14,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,66; 15,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,18; 45,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,54; 4,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 9,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,3; 12,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,21; 5,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,22; 6,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,44; 17,45</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,44%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-79,99; 133,27</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 373,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,43; 194,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,05; 258,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 453,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,33; 75,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,03; 90,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,27; 199,62</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,07; 22,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,74; 37,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,23; 16,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 29,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,56; 12,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,78; 20,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,17; 22,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,91; 14,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,11; 12,5</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,37%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,72; 111,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,1; 201,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,96; 97,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,53; 362,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,28; 134,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,59; 211,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,59; 146,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,44; 83,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,3; 71,78</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,5</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,66</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,69</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,95; 48,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 53,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 42,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; 36,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,67; 35,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 27,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 35,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,58; 35,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 28,75</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>155,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>122,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,6%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,85%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,13%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,32; 974,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,93; 823,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,27; 830,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,69; 163,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,23; 154,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,97; 110,22</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 196,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 185,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,21; 152,75</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,71</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,39</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,11</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,52; 16,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,68; 30,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,55; 17,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,92; 21,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,19; 31,27</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,06; 4,07</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,89; 9,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 23,51</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,73; 4,51</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,86%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,54%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,56%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,99%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,69%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,9%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,21; 55,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,18; 123,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,33; 69,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,15; 75,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,64; 100,86</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,75; 14,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,93; 29,36</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,55; 65,04</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,86; 13,07</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,46</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,21; 24,21</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,84; 20,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 26,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; 11,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 26,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,7; 10,9</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,48; 13,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 19,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 14,15</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,93%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,86%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,2%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,14%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,62%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,68%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,56; 265,08</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,34; 203,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,75; 267,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,69; 73,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,34; 154,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,83; 67,0</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,82; 83,95</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,49; 118,94</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,98; 87,11</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,17</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,01; 12,69</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 18,37</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 16,68</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 11,79</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,2; 12,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 9,98</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 9,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 12,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 10,81</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,16%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,25; 59,09</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,49; 83,04</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,44; 85,99</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,73; 70,51</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,13; 72,99</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,8; 55,88</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 50,41</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 63,27</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 55,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P20B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,06</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,68</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 52,37</t>
+          <t>-6,2; 53,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,05; 37,18</t>
+          <t>-13,1; 37,58</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>347,23%</t>
+          <t>357,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>36,9%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>2,56</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 45,76</t>
+          <t>-25,78; 46,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 12,54</t>
+          <t>-10,14; 13,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 17,45</t>
+          <t>-8,6; 19,23</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>32,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,21%</t>
+          <t>-9,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 373,37</t>
+          <t>-100,0; 388,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 453,34</t>
+          <t>-100,0; 502,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 199,62</t>
+          <t>-62,73; 228,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,66</t>
+          <t>-14,68</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>4,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>-2,24</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-42,23; 16,62</t>
+          <t>-42,16; 16,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 20,45</t>
+          <t>-13,31; 19,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 12,5</t>
+          <t>-19,69; 12,24</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-38,53%</t>
+          <t>-38,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,37%</t>
+          <t>-8,88%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,96; 97,58</t>
+          <t>-82,68; 90,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,59; 211,12</t>
+          <t>-50,02; 206,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,3; 71,78</t>
+          <t>-56,83; 71,77</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,83</t>
+          <t>20,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>11,95</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 42,59</t>
+          <t>-3,8; 42,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 27,23</t>
+          <t>-18,79; 27,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 28,75</t>
+          <t>-5,42; 28,91</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>122,3%</t>
+          <t>123,09%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>42,18%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 830,32</t>
+          <t>-23,01; 830,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,97; 110,22</t>
+          <t>-36,57; 111,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 152,75</t>
+          <t>-13,93; 153,21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-8,39</t>
+          <t>-8,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-19,11</t>
+          <t>-18,69</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>-12,76</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 17,24</t>
+          <t>-34,56; 17,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 4,07</t>
+          <t>-42,67; 4,83</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 4,51</t>
+          <t>-29,49; 4,77</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-18,54%</t>
+          <t>-18,23%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-39,99%</t>
+          <t>-39,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-27,9%</t>
+          <t>-27,31%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,33; 69,85</t>
+          <t>-55,14; 70,59</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,75; 14,76</t>
+          <t>-69,15; 16,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,86; 13,07</t>
+          <t>-51,58; 12,88</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>12,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>13,79</t>
+          <t>19,63</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-12,66</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>5,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 24,21</t>
+          <t>-14,15; 36,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 20,46</t>
+          <t>-22,36; 23,08</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 26,48</t>
+          <t>-3,08; 38,73</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 11,88</t>
+          <t>-25,53; 21,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 26,27</t>
+          <t>-13,35; 36,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 10,9</t>
+          <t>-30,79; 9,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 13,11</t>
+          <t>-13,12; 21,37</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 19,94</t>
+          <t>-11,49; 21,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 14,15</t>
+          <t>-10,18; 18,77</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>57,22%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,14%</t>
+          <t>-2,48%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-6,62%</t>
+          <t>-37,35%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>17,49%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-33,56; 265,08</t>
+          <t>-44,39; 419,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 203,51</t>
+          <t>-62,88; 259,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 267,9</t>
+          <t>-13,16; 428,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,69; 73,26</t>
+          <t>-54,29; 103,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 154,26</t>
+          <t>-33,39; 180,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-44,83; 67,0</t>
+          <t>-71,09; 45,74</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 83,95</t>
+          <t>-35,66; 105,95</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 118,94</t>
+          <t>-33,16; 108,92</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 87,11</t>
+          <t>-28,85; 105,73</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,96</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>7,53</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>6,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 12,69</t>
+          <t>-18,12; 24,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 18,37</t>
+          <t>-10,24; 34,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 16,68</t>
+          <t>-15,07; 22,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 11,79</t>
+          <t>-19,74; 14,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,1</t>
+          <t>-7,89; 34,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 9,98</t>
+          <t>-12,14; 22,06</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,68</t>
+          <t>-13,68; 13,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 12,17</t>
+          <t>-5,12; 27,1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 10,81</t>
+          <t>-5,88; 18,0</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>81,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>-10,09%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>59,87%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>19,01%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>67,34%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>23,16%</t>
+          <t>43,73%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-82,67; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-59,64; 510,45</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-75,08; 244,55</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-37,08; 506,31</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-42,18; 316,74</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-61,63; 170,54</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-29,15; 326,2</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-25,71; 231,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>6,87</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>5,55</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>5,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 12,69</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 18,37</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 16,72</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 11,79</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,2; 12,1</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 10,29</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 9,68</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 12,17</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 10,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>13,25%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>28,4%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>26,18%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>21,76%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>20,6%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>19,01%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>24,89%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-19,25; 59,09</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-11,49; 83,04</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 85,99</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; 87,11</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-11,73; 70,51</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-14,13; 72,99</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-19,8; 55,88</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-18,43; 57,51</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-4,21; 50,41</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-0,56; 63,27</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 55,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 57,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P20B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Edad-trans_camb.xlsx
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,62; 35,98</t>
+          <t>-43,24; 32,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,58; 33,55</t>
+          <t>-44,12; 32,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 21,66</t>
+          <t>-3,44; 20,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 16,92</t>
+          <t>-6,36; 17,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 53,73</t>
+          <t>-6,22; 55,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 20,91</t>
+          <t>-6,53; 22,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 16,52</t>
+          <t>-11,97; 15,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 37,58</t>
+          <t>-12,83; 39,7</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,16; 476,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 440,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,44; 663,91</t>
+          <t>-49,37; 732,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 565,2</t>
+          <t>-76,78; 533,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-29,19; 14,8</t>
+          <t>-29,83; 14,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,66; 15,75</t>
+          <t>-34,43; 17,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 46,75</t>
+          <t>-29,41; 49,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 4,94</t>
+          <t>-10,65; 5,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 9,19</t>
+          <t>-10,47; 8,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 13,5</t>
+          <t>-9,07; 13,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 5,41</t>
+          <t>-11,55; 4,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 6,15</t>
+          <t>-12,96; 5,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 19,23</t>
+          <t>-10,19; 18,02</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,99; 133,27</t>
+          <t>-78,35; 162,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 244,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 388,88</t>
+          <t>-100,0; 416,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,43; 194,34</t>
+          <t>-81,28; 210,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,05; 258,16</t>
+          <t>-86,55; 211,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 502,73</t>
+          <t>-100,0; 376,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-68,33; 75,55</t>
+          <t>-66,68; 68,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-74,03; 90,79</t>
+          <t>-77,06; 77,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-62,73; 228,77</t>
+          <t>-69,6; 242,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-35,07; 22,61</t>
+          <t>-34,85; 20,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 37,56</t>
+          <t>-24,62; 39,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 16,8</t>
+          <t>-43,75; 16,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 29,85</t>
+          <t>-5,62; 31,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 12,28</t>
+          <t>-18,46; 13,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 19,92</t>
+          <t>-12,23; 21,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 22,92</t>
+          <t>-10,27; 20,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 14,28</t>
+          <t>-15,97; 14,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 12,24</t>
+          <t>-18,33; 11,96</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-63,72; 111,81</t>
+          <t>-61,93; 107,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,1; 201,83</t>
+          <t>-48,4; 203,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,68; 90,48</t>
+          <t>-84,51; 75,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 362,1</t>
+          <t>-23,9; 353,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,28; 134,4</t>
+          <t>-71,81; 170,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,02; 206,92</t>
+          <t>-44,76; 234,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 146,44</t>
+          <t>-31,4; 125,09</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 83,92</t>
+          <t>-47,78; 86,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,83; 71,77</t>
+          <t>-54,3; 72,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 48,76</t>
+          <t>0,34; 46,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 53,77</t>
+          <t>-2,41; 50,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 42,8</t>
+          <t>-0,94; 42,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 36,84</t>
+          <t>-15,19; 33,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 35,26</t>
+          <t>-19,42; 33,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 27,26</t>
+          <t>-18,21; 28,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 35,09</t>
+          <t>0,08; 34,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 35,01</t>
+          <t>-3,65; 34,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 28,91</t>
+          <t>-6,29; 28,83</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 974,74</t>
+          <t>-13,03; 839,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 823,35</t>
+          <t>-17,99; 971,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 830,62</t>
+          <t>-10,7; 780,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,69; 163,21</t>
+          <t>-26,81; 141,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 154,3</t>
+          <t>-38,67; 148,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,57; 111,57</t>
+          <t>-35,46; 129,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 196,66</t>
+          <t>-3,56; 188,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 185,62</t>
+          <t>-10,52; 185,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 153,21</t>
+          <t>-16,7; 157,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 16,05</t>
+          <t>-40,19; 17,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-26,68; 30,95</t>
+          <t>-25,4; 31,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-34,56; 17,5</t>
+          <t>-34,27; 16,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 21,5</t>
+          <t>-35,99; 16,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,19; 31,27</t>
+          <t>-32,06; 28,7</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 4,83</t>
+          <t>-42,92; 3,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 9,74</t>
+          <t>-31,77; 8,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 23,51</t>
+          <t>-19,17; 20,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 4,77</t>
+          <t>-30,4; 4,99</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-66,21; 55,45</t>
+          <t>-67,78; 68,0</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 123,46</t>
+          <t>-41,68; 116,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-55,14; 70,59</t>
+          <t>-55,5; 66,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-55,15; 75,15</t>
+          <t>-59,14; 49,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-45,64; 100,86</t>
+          <t>-52,59; 87,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,15; 16,52</t>
+          <t>-67,18; 13,65</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 29,36</t>
+          <t>-53,45; 24,37</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-31,55; 65,04</t>
+          <t>-35,02; 57,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-51,58; 12,88</t>
+          <t>-52,96; 15,78</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 36,04</t>
+          <t>-16,14; 36,78</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 23,08</t>
+          <t>-21,63; 22,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 38,73</t>
+          <t>-4,82; 38,34</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 21,95</t>
+          <t>-22,34; 22,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 36,78</t>
+          <t>-13,63; 36,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-30,79; 9,18</t>
+          <t>-31,85; 7,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 21,37</t>
+          <t>-12,16; 21,29</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 21,18</t>
+          <t>-12,85; 21,83</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 18,77</t>
+          <t>-11,4; 19,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 419,55</t>
+          <t>-52,5; 368,79</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-62,88; 259,69</t>
+          <t>-65,6; 240,9</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 428,92</t>
+          <t>-13,89; 451,67</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-54,29; 103,36</t>
+          <t>-50,74; 106,26</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 180,91</t>
+          <t>-31,99; 166,84</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-71,09; 45,74</t>
+          <t>-71,4; 34,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-35,66; 105,95</t>
+          <t>-32,31; 105,96</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-33,16; 108,92</t>
+          <t>-34,57; 109,19</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-28,85; 105,73</t>
+          <t>-29,83; 95,54</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 24,03</t>
+          <t>-17,0; 26,52</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 34,84</t>
+          <t>-11,55; 36,13</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 22,23</t>
+          <t>-18,03; 21,73</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 14,33</t>
+          <t>-22,15; 13,54</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 34,46</t>
+          <t>-9,3; 30,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,14; 22,06</t>
+          <t>-11,32; 22,67</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 13,56</t>
+          <t>-12,7; 13,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 27,1</t>
+          <t>-4,83; 26,18</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 18,0</t>
+          <t>-6,33; 17,98</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-82,67; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,64; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-59,64; 510,45</t>
+          <t>-63,38; 483,47</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-75,08; 244,55</t>
+          <t>-77,38; 192,3</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 506,31</t>
+          <t>-42,24; 525,17</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 316,74</t>
+          <t>-42,05; 340,88</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-61,63; 170,54</t>
+          <t>-58,23; 182,22</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 326,2</t>
+          <t>-28,48; 298,42</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 231,28</t>
+          <t>-27,8; 220,1</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 12,69</t>
+          <t>-7,28; 13,26</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 18,37</t>
+          <t>-2,81; 17,68</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 16,72</t>
+          <t>-2,99; 16,72</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 11,79</t>
+          <t>-2,49; 11,25</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 12,1</t>
+          <t>-3,16; 11,06</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 10,29</t>
+          <t>-4,22; 9,37</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,68</t>
+          <t>-1,4; 9,97</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 12,17</t>
+          <t>-1,01; 11,73</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 10,97</t>
+          <t>-0,96; 11,33</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 59,09</t>
+          <t>-22,9; 62,52</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-11,49; 83,04</t>
+          <t>-9,03; 80,31</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 87,11</t>
+          <t>-9,7; 85,3</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 70,51</t>
+          <t>-10,01; 71,67</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 72,99</t>
+          <t>-14,03; 67,62</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 57,51</t>
+          <t>-17,79; 56,77</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 50,41</t>
+          <t>-5,22; 50,26</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 63,27</t>
+          <t>-3,63; 60,56</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 57,04</t>
+          <t>-3,45; 58,96</t>
         </is>
       </c>
     </row>
